--- a/DOCUMENTS/A_DATA_MAPPING/_02_DataMapping.xlsx
+++ b/DOCUMENTS/A_DATA_MAPPING/_02_DataMapping.xlsx
@@ -4,31 +4,33 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" tabRatio="830" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" tabRatio="830" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Read_Me" sheetId="12" r:id="rId1"/>
     <sheet name="General" sheetId="9" r:id="rId2"/>
-    <sheet name="Employee_Master_Analytics" sheetId="10" r:id="rId3"/>
-    <sheet name="Payroll_Analytics" sheetId="11" r:id="rId4"/>
-    <sheet name="EMF_MASTER_FILE" sheetId="4" r:id="rId5"/>
-    <sheet name="EMF_LEAVES" sheetId="1" r:id="rId6"/>
-    <sheet name="EMF_BANKACC" sheetId="3" r:id="rId7"/>
-    <sheet name="Acerno_Cache_XXXXX" sheetId="5" state="veryHidden" r:id="rId8"/>
-    <sheet name="PAYROLL_PAYMENTS" sheetId="2" r:id="rId9"/>
-    <sheet name="Gobal_Parameters" sheetId="7" r:id="rId10"/>
-    <sheet name="HR_501_FO" sheetId="6" r:id="rId11"/>
-    <sheet name="TABLE_LINK" sheetId="8" r:id="rId12"/>
+    <sheet name="Internal_values" sheetId="13" r:id="rId3"/>
+    <sheet name="Employee_Master_Analytics" sheetId="10" r:id="rId4"/>
+    <sheet name="Payroll_Analytics" sheetId="11" r:id="rId5"/>
+    <sheet name="EMF_MASTER_FILE" sheetId="4" r:id="rId6"/>
+    <sheet name="EMF_LEAVES" sheetId="1" r:id="rId7"/>
+    <sheet name="EMF_BANKACC" sheetId="3" r:id="rId8"/>
+    <sheet name="Acerno_Cache_XXXXX" sheetId="5" state="veryHidden" r:id="rId9"/>
+    <sheet name="PAYROLL_PAYMENTS" sheetId="2" r:id="rId10"/>
+    <sheet name="Gobal_Parameters" sheetId="7" r:id="rId11"/>
+    <sheet name="HR_101_FO" sheetId="6" r:id="rId12"/>
+    <sheet name="HR_101_Config" sheetId="14" r:id="rId13"/>
+    <sheet name="TABLE_LINK" sheetId="8" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EMF_MASTER_FILE!$L$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">EMF_MASTER_FILE!$L$10</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="487">
   <si>
     <t>Type</t>
   </si>
@@ -1774,6 +1776,141 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Investigation Period</t>
+  </si>
+  <si>
+    <t>Test Run Frequency</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Every 3 Months</t>
+  </si>
+  <si>
+    <t>Every 6 Months</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>Fortnightly</t>
+  </si>
+  <si>
+    <t>14 Days</t>
+  </si>
+  <si>
+    <t>30 Days</t>
+  </si>
+  <si>
+    <t>60 Days</t>
+  </si>
+  <si>
+    <t>90 Days</t>
+  </si>
+  <si>
+    <t>120 Days</t>
+  </si>
+  <si>
+    <t>365 Days</t>
+  </si>
+  <si>
+    <t>730 Days</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>Field_Name</t>
+  </si>
+  <si>
+    <t>Logical1</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Exclude History</t>
+  </si>
+  <si>
+    <t>Exclude GreyList</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Key fields to check for duplicates</t>
+  </si>
+  <si>
+    <t>Internal Field Reference</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Field Description</t>
+  </si>
+  <si>
+    <t>Filters to be applied</t>
+  </si>
+  <si>
+    <t>Operand</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>BETWEEN</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Clerk</t>
+  </si>
+  <si>
+    <t>Read_Me</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +2058,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -2363,6 +2500,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2370,7 +2708,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2433,12 +2771,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2560,12 +2892,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2593,6 +2937,71 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -2897,10 +3306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2909,16 +3318,17 @@
     <col min="3" max="3" width="137" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="115" t="s">
         <v>383</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="116" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="70" t="s">
         <v>384</v>
       </c>
       <c r="C4" t="s">
@@ -2926,7 +3336,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="70" t="s">
         <v>386</v>
       </c>
       <c r="C5" t="s">
@@ -2934,7 +3344,7 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="70" t="s">
         <v>387</v>
       </c>
       <c r="C6" t="s">
@@ -2942,7 +3352,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="70" t="s">
         <v>390</v>
       </c>
       <c r="C7" t="s">
@@ -2962,10 +3372,718 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="F3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="152.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="10">
+        <v>10</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10">
+        <v>10</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10">
+        <v>20</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="20">
+        <v>10</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="20">
+        <v>10</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="14">
+        <v>10</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="14">
+        <v>10</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="14">
+        <v>10</v>
+      </c>
+      <c r="D24" s="14">
+        <v>2</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="14">
+        <v>10</v>
+      </c>
+      <c r="D25" s="14">
+        <v>2</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="14">
+        <v>10</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="14">
+        <v>10</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="14">
+        <v>10</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="14">
+        <v>10</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="14">
+        <v>20</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="14">
+        <v>20</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="14">
+        <v>20</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="14">
+        <v>20</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="14">
+        <v>20</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,484 +4092,1083 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="41" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="111" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="111" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="90"/>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="112" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="113"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="str">
+        <f>Employee_Master_Analytics!A7</f>
+        <v>EM003</v>
+      </c>
+      <c r="B7" s="91" t="str">
+        <f>Employee_Master_Analytics!B7</f>
+        <v>Identify Duplicate employees by Name</v>
+      </c>
+      <c r="C7" s="114"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="41">
+        <f>VLOOKUP(A11,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="41">
+        <f>VLOOKUP(A11,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="41">
+        <f>VLOOKUP(A12,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="41">
+        <f>VLOOKUP(A12,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" s="41" t="str">
+        <f>VLOOKUP(A13,EMF_MASTER_FILE!A:B,2)</f>
+        <v>EMP_Sts</v>
+      </c>
+      <c r="C13" s="41" t="str">
+        <f>VLOOKUP(A13,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Employee Status</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" s="41" t="str">
+        <f>VLOOKUP(A14,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Emp_ID</v>
+      </c>
+      <c r="C14" s="41" t="str">
+        <f>VLOOKUP(A14,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Employee Code</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" s="41" t="str">
+        <f>VLOOKUP(A15,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Tax_Fle_Num</v>
+      </c>
+      <c r="C15" s="41" t="str">
+        <f>VLOOKUP(A15,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Tax File Number</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="41" t="str">
+        <f>VLOOKUP(A16,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Title</v>
+      </c>
+      <c r="C16" s="41" t="str">
+        <f>VLOOKUP(A16,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Position</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="41" t="str">
+        <f>VLOOKUP(A17,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Frst_Nme</v>
+      </c>
+      <c r="C17" s="41" t="str">
+        <f>VLOOKUP(A17,EMF_MASTER_FILE!A:F,6)</f>
+        <v>First Name / Given Name</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="77" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="41" t="str">
+        <f>VLOOKUP(A18,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Second_Given_Name</v>
+      </c>
+      <c r="C18" s="41" t="str">
+        <f>VLOOKUP(A18,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Second Given Name</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="41" t="str">
+        <f>VLOOKUP(A19,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Sur_Nme</v>
+      </c>
+      <c r="C19" s="41" t="str">
+        <f>VLOOKUP(A19,EMF_MASTER_FILE!A:F,6)</f>
+        <v>SurName / Family Name</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="B20" s="41" t="str">
+        <f>VLOOKUP(A20,EMF_MASTER_FILE!A:B,2)</f>
+        <v>ADD1</v>
+      </c>
+      <c r="C20" s="41" t="str">
+        <f>VLOOKUP(A20,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Address 1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="B21" s="41" t="str">
+        <f>VLOOKUP(A21,EMF_MASTER_FILE!A:B,2)</f>
+        <v>ADD2</v>
+      </c>
+      <c r="C21" s="41" t="str">
+        <f>VLOOKUP(A21,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Address 2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" s="41" t="str">
+        <f>VLOOKUP(A22,EMF_MASTER_FILE!A:B,2)</f>
+        <v>ADD3</v>
+      </c>
+      <c r="C22" s="41" t="str">
+        <f>VLOOKUP(A22,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Address 3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="B23" s="41" t="str">
+        <f>VLOOKUP(A23,EMF_MASTER_FILE!A:B,2)</f>
+        <v>City</v>
+      </c>
+      <c r="C23" s="41" t="str">
+        <f>VLOOKUP(A23,EMF_MASTER_FILE!A:F,6)</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="B24" s="41" t="str">
+        <f>VLOOKUP(A24,EMF_MASTER_FILE!A:B,2)</f>
+        <v>State</v>
+      </c>
+      <c r="C24" s="41" t="str">
+        <f>VLOOKUP(A24,EMF_MASTER_FILE!A:F,6)</f>
+        <v>State</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25" s="41" t="str">
+        <f>VLOOKUP(A25,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Pcode</v>
+      </c>
+      <c r="C25" s="41" t="str">
+        <f>VLOOKUP(A25,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Post Code</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" s="41" t="str">
+        <f>VLOOKUP(A26,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Cntry</v>
+      </c>
+      <c r="C26" s="41" t="str">
+        <f>VLOOKUP(A26,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Country</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="B27" s="41" t="str">
+        <f>VLOOKUP(A27,EMF_MASTER_FILE!A:B,2)</f>
+        <v>TEL1</v>
+      </c>
+      <c r="C27" s="41" t="str">
+        <f>VLOOKUP(A27,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Telephone 1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" s="41" t="str">
+        <f>VLOOKUP(A28,EMF_MASTER_FILE!A:B,2)</f>
+        <v>TEL2</v>
+      </c>
+      <c r="C28" s="41" t="str">
+        <f>VLOOKUP(A28,EMF_MASTER_FILE!A:F,6)</f>
+        <v xml:space="preserve">Teltphone 2 </v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="B29" s="41" t="str">
+        <f>VLOOKUP(A29,EMF_MASTER_FILE!A:B,2)</f>
+        <v>TEL3</v>
+      </c>
+      <c r="C29" s="41" t="str">
+        <f>VLOOKUP(A29,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Telephone 3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="B30" s="41" t="str">
+        <f>VLOOKUP(A30,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Fax</v>
+      </c>
+      <c r="C30" s="41" t="str">
+        <f>VLOOKUP(A30,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Fax</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" s="41" t="str">
+        <f>VLOOKUP(A31,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Email_Bus</v>
+      </c>
+      <c r="C31" s="41" t="str">
+        <f>VLOOKUP(A31,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Email (Business)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="B32" s="41" t="str">
+        <f>VLOOKUP(A32,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Email_Privt</v>
+      </c>
+      <c r="C32" s="41" t="str">
+        <f>VLOOKUP(A32,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Email (Private)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="B33" s="41" t="str">
+        <f>VLOOKUP(A33,EMF_MASTER_FILE!A:B,2)</f>
+        <v>DOB</v>
+      </c>
+      <c r="C33" s="41" t="str">
+        <f>VLOOKUP(A33,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Date of Birth</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="B34" s="41" t="str">
+        <f>VLOOKUP(A34,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Sex</v>
+      </c>
+      <c r="C34" s="41" t="str">
+        <f>VLOOKUP(A34,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Sex/Gender</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B35" s="41" t="str">
+        <f>VLOOKUP(A35,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Hire_Dt</v>
+      </c>
+      <c r="C35" s="41" t="str">
+        <f>VLOOKUP(A35,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Commence / Start / Hired Date</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="77" t="s">
+        <v>344</v>
+      </c>
+      <c r="B36" s="41" t="str">
+        <f>VLOOKUP(A36,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Trm_Dt</v>
+      </c>
+      <c r="C36" s="41" t="str">
+        <f>VLOOKUP(A36,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Termination Date</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="77" t="s">
+        <v>345</v>
+      </c>
+      <c r="B37" s="41" t="str">
+        <f>VLOOKUP(A37,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Term_Reason_Desc</v>
+      </c>
+      <c r="C37" s="41" t="str">
+        <f>VLOOKUP(A37,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Termination Reason Description</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="B38" s="41" t="str">
+        <f>VLOOKUP(A38,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Mrtl_Sts</v>
+      </c>
+      <c r="C38" s="41" t="str">
+        <f>VLOOKUP(A38,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Marital Status</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="77" t="s">
+        <v>347</v>
+      </c>
+      <c r="B39" s="41" t="str">
+        <f>VLOOKUP(A39,EMF_MASTER_FILE!A:B,2)</f>
+        <v>AUTOPAY_HOURS_DAYS</v>
+      </c>
+      <c r="C39" s="41" t="str">
+        <f>VLOOKUP(A39,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Auto Pay Hours / Days</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="77" t="s">
+        <v>348</v>
+      </c>
+      <c r="B40" s="41" t="str">
+        <f>VLOOKUP(A40,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Emp_Catg</v>
+      </c>
+      <c r="C40" s="41" t="str">
+        <f>VLOOKUP(A40,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Employee Type Description</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="B41" s="41" t="str">
+        <f>VLOOKUP(A41,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Created_Dt</v>
+      </c>
+      <c r="C41" s="41" t="str">
+        <f>VLOOKUP(A41,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Created Date</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="77" t="s">
+        <v>350</v>
+      </c>
+      <c r="B42" s="41" t="str">
+        <f>VLOOKUP(A42,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Modf_Dt</v>
+      </c>
+      <c r="C42" s="41" t="str">
+        <f>VLOOKUP(A42,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Modified Date</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="77" t="s">
+        <v>351</v>
+      </c>
+      <c r="B43" s="41" t="str">
+        <f>VLOOKUP(A43,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Commencement_Dt</v>
+      </c>
+      <c r="C43" s="41" t="str">
+        <f>VLOOKUP(A43,EMF_MASTER_FILE!A:F,6)</f>
+        <v>CommencementDate</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="77" t="s">
+        <v>352</v>
+      </c>
+      <c r="B44" s="41" t="str">
+        <f>VLOOKUP(A44,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Anniversary_Dt</v>
+      </c>
+      <c r="C44" s="41" t="str">
+        <f>VLOOKUP(A44,EMF_MASTER_FILE!A:F,6)</f>
+        <v>AnniversaryDate</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="B45" s="41" t="str">
+        <f>VLOOKUP(A45,EMF_MASTER_FILE!A:B,2)</f>
+        <v>SLTotalUnits</v>
+      </c>
+      <c r="C45" s="41" t="str">
+        <f>VLOOKUP(A45,EMF_MASTER_FILE!A:F,6)</f>
+        <v>SLTotalUnits</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="77" t="s">
+        <v>354</v>
+      </c>
+      <c r="B46" s="41" t="str">
+        <f>VLOOKUP(A46,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Total_PayAmt</v>
+      </c>
+      <c r="C46" s="41" t="str">
+        <f>VLOOKUP(A46,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Total_PayAmt</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="77" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" s="41" t="str">
+        <f>VLOOKUP(A47,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Total_Pay_Num</v>
+      </c>
+      <c r="C47" s="41" t="str">
+        <f>VLOOKUP(A47,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Total_Pay_Num</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="B48" s="41" t="str">
+        <f>VLOOKUP(A48,EMF_MASTER_FILE!A:B,2)</f>
+        <v>COST_CENTRE</v>
+      </c>
+      <c r="C48" s="41" t="str">
+        <f>VLOOKUP(A48,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Cost Centre/Department</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="77" t="s">
+        <v>357</v>
+      </c>
+      <c r="B49" s="41" t="str">
+        <f>VLOOKUP(A49,EMF_MASTER_FILE!A:B,2)</f>
+        <v>COST_CENTRE_DESC</v>
+      </c>
+      <c r="C49" s="41" t="str">
+        <f>VLOOKUP(A49,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Cost Centre/Department Description</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="77" t="s">
+        <v>358</v>
+      </c>
+      <c r="B50" s="41" t="str">
+        <f>VLOOKUP(A50,EMF_MASTER_FILE!A:B,2)</f>
+        <v>BSB</v>
+      </c>
+      <c r="C50" s="41" t="str">
+        <f>VLOOKUP(A50,EMF_MASTER_FILE!A:F,6)</f>
+        <v>BSB</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="B51" s="41" t="str">
+        <f>VLOOKUP(A51,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Bank_account_number</v>
+      </c>
+      <c r="C51" s="41" t="str">
+        <f>VLOOKUP(A51,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Bank Account Number</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="B52" s="41">
+        <f>VLOOKUP(A52,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="41">
+        <f>VLOOKUP(A52,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="B53" s="41">
+        <f>VLOOKUP(A53,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="41">
+        <f>VLOOKUP(A53,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="77" t="s">
+        <v>362</v>
+      </c>
+      <c r="B54" s="41">
+        <f>VLOOKUP(A54,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="41">
+        <f>VLOOKUP(A54,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="77" t="s">
+        <v>363</v>
+      </c>
+      <c r="B55" s="41">
+        <f>VLOOKUP(A55,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="41">
+        <f>VLOOKUP(A55,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="B56" s="41">
+        <f>VLOOKUP(A56,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="41">
+        <f>VLOOKUP(A56,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="77" t="s">
+        <v>365</v>
+      </c>
+      <c r="B57" s="41">
+        <f>VLOOKUP(A57,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="41">
+        <f>VLOOKUP(A57,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="77" t="s">
+        <v>366</v>
+      </c>
+      <c r="B58" s="41">
+        <f>VLOOKUP(A58,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="41">
+        <f>VLOOKUP(A58,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="B59" s="41">
+        <f>VLOOKUP(A59,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="41">
+        <f>VLOOKUP(A59,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="77" t="s">
+        <v>368</v>
+      </c>
+      <c r="B60" s="41">
+        <f>VLOOKUP(A60,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="41">
+        <f>VLOOKUP(A60,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" location="EMF_MASTER_FILE!A1" display="EMF_MASTER_FILE"/>
+    <hyperlink ref="A3" location="Employee_Master_Analytics!A1" display="Employee_Master_Analytics"/>
+    <hyperlink ref="A2" location="General!A1" display="General"/>
+    <hyperlink ref="A1" location="Read_Me!A1" display="Read_Me"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="27" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="90" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="B2">
-        <f>VLOOKUP(A2,EMF_MASTER_FILE!A:H,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3">
-        <f>VLOOKUP(A3,EMF_MASTER_FILE!A:H,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" t="str">
-        <f>VLOOKUP(A4,EMF_MASTER_FILE!A:H,2)</f>
-        <v>ADD1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="111" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="111" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="112" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="113"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="str">
+        <f>Employee_Master_Analytics!A7</f>
+        <v>EM003</v>
+      </c>
+      <c r="B7" s="91" t="str">
+        <f>Employee_Master_Analytics!B7</f>
+        <v>Identify Duplicate employees by Name</v>
+      </c>
+      <c r="C7" s="114"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="103" t="s">
+        <v>466</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
+        <v>464</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="98" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="92" t="s">
+        <v>468</v>
+      </c>
+      <c r="B14" s="93"/>
+      <c r="C14" s="101"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="94" t="s">
+        <v>469</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="95" t="s">
         <v>322</v>
       </c>
-      <c r="B5" t="str">
-        <f>VLOOKUP(A5,EMF_MASTER_FILE!A:H,2)</f>
+      <c r="B16" s="96" t="str">
+        <f>VLOOKUP(A16,EMF_MASTER_FILE!A:B,2)</f>
         <v>Emp_ID</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="C16" s="97" t="str">
+        <f>VLOOKUP(A16,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Employee Code</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="95" t="s">
         <v>323</v>
       </c>
-      <c r="B6" t="str">
-        <f>VLOOKUP(A6,EMF_MASTER_FILE!A:H,2)</f>
+      <c r="B17" s="96" t="str">
+        <f>VLOOKUP(A17,EMF_MASTER_FILE!A:B,2)</f>
         <v>Tax_Fle_Num</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="C17" s="97" t="str">
+        <f>VLOOKUP(A17,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Tax File Number</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" s="96" t="str">
+        <f>VLOOKUP(A18,EMF_MASTER_FILE!A:B,2)</f>
+        <v>EMP_Sts</v>
+      </c>
+      <c r="C18" s="97" t="str">
+        <f>VLOOKUP(A18,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Employee Status</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="95"/>
+      <c r="B19" s="96" t="e">
+        <f>VLOOKUP(A19,EMF_MASTER_FILE!A:B,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="97" t="e">
+        <f>VLOOKUP(A19,EMF_MASTER_FILE!A:F,6)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="110"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="95"/>
+      <c r="B20" s="96" t="e">
+        <f>VLOOKUP(A20,EMF_MASTER_FILE!A:B,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="97" t="e">
+        <f>VLOOKUP(A20,EMF_MASTER_FILE!A:F,6)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="98"/>
+      <c r="B21" s="99" t="e">
+        <f>VLOOKUP(A21,EMF_MASTER_FILE!A:B,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="100" t="e">
+        <f>VLOOKUP(A21,EMF_MASTER_FILE!A:F,6)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="109"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="106" t="s">
+        <v>472</v>
+      </c>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="94" t="s">
+        <v>469</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="D25" s="105" t="s">
+        <v>473</v>
+      </c>
+      <c r="E25" s="102" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" s="96" t="str">
+        <f>VLOOKUP(A26,EMF_MASTER_FILE!A:B,2)</f>
+        <v>EMP_Sts</v>
+      </c>
+      <c r="C26" s="96" t="str">
+        <f>VLOOKUP(A26,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Employee Status</v>
+      </c>
+      <c r="D26" s="96" t="s">
+        <v>475</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="95"/>
+      <c r="B27" s="96" t="e">
+        <f>VLOOKUP(A27,EMF_MASTER_FILE!A:B,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C27" s="96" t="e">
+        <f>VLOOKUP(A27,EMF_MASTER_FILE!A:F,6)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="96" t="s">
+        <v>481</v>
+      </c>
+      <c r="E27" s="97"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="95" t="s">
         <v>324</v>
       </c>
-      <c r="B7" t="str">
-        <f>VLOOKUP(A7,EMF_MASTER_FILE!A:H,2)</f>
+      <c r="B28" s="96" t="str">
+        <f>VLOOKUP(A28,EMF_MASTER_FILE!A:B,2)</f>
         <v>Title</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="B8" t="str">
-        <f>VLOOKUP(A8,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Frst_Nme</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="B9" t="str">
-        <f>VLOOKUP(A9,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Second_Given_Name</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="B10" t="str">
-        <f>VLOOKUP(A10,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Sur_Nme</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="B11" t="str">
-        <f>VLOOKUP(A11,EMF_MASTER_FILE!A:H,2)</f>
-        <v>ADD1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="B12" t="str">
-        <f>VLOOKUP(A12,EMF_MASTER_FILE!A:H,2)</f>
-        <v>ADD2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="B13" t="str">
-        <f>VLOOKUP(A13,EMF_MASTER_FILE!A:H,2)</f>
-        <v>ADD3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="B14" t="str">
-        <f>VLOOKUP(A14,EMF_MASTER_FILE!A:H,2)</f>
-        <v>City</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="B15" t="str">
-        <f>VLOOKUP(A15,EMF_MASTER_FILE!A:H,2)</f>
-        <v>State</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="B16" t="str">
-        <f>VLOOKUP(A16,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Pcode</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="B17" t="str">
-        <f>VLOOKUP(A17,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Cntry</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="B18" t="str">
-        <f>VLOOKUP(A18,EMF_MASTER_FILE!A:H,2)</f>
-        <v>TEL1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="B19" t="str">
-        <f>VLOOKUP(A19,EMF_MASTER_FILE!A:H,2)</f>
-        <v>TEL2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="B20" t="str">
-        <f>VLOOKUP(A20,EMF_MASTER_FILE!A:H,2)</f>
-        <v>TEL3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="B21" t="str">
-        <f>VLOOKUP(A21,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Fax</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="B22" t="str">
-        <f>VLOOKUP(A22,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Email_Bus</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="B23" t="str">
-        <f>VLOOKUP(A23,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Email_Privt</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="B24" t="str">
-        <f>VLOOKUP(A24,EMF_MASTER_FILE!A:H,2)</f>
-        <v>DOB</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="B25" t="str">
-        <f>VLOOKUP(A25,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Sex</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="B26" t="str">
-        <f>VLOOKUP(A26,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Hire_Dt</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="B27" t="str">
-        <f>VLOOKUP(A27,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Trm_Dt</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="B28" t="str">
-        <f>VLOOKUP(A28,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Term_Reason_Desc</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="B29" t="str">
-        <f>VLOOKUP(A29,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Mrtl_Sts</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="B30" t="str">
-        <f>VLOOKUP(A30,EMF_MASTER_FILE!A:H,2)</f>
-        <v>AUTOPAY_HOURS_DAYS</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="B31" t="str">
-        <f>VLOOKUP(A31,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Emp_Catg</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="B32" t="str">
-        <f>VLOOKUP(A32,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Created_Dt</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="B33" t="str">
-        <f>VLOOKUP(A33,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Modf_Dt</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="B34" t="str">
-        <f>VLOOKUP(A34,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Commencement_Dt</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="B35" t="str">
-        <f>VLOOKUP(A35,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Anniversary_Dt</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="B36" t="str">
-        <f>VLOOKUP(A36,EMF_MASTER_FILE!A:H,2)</f>
-        <v>SLTotalUnits</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="B37" t="str">
-        <f>VLOOKUP(A37,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Total_PayAmt</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="B38" t="str">
-        <f>VLOOKUP(A38,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Total_Pay_Num</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="B39" t="str">
-        <f>VLOOKUP(A39,EMF_MASTER_FILE!A:H,2)</f>
-        <v>COST_CENTRE</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="B40" t="str">
-        <f>VLOOKUP(A40,EMF_MASTER_FILE!A:H,2)</f>
-        <v>COST_CENTRE_DESC</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="B41" t="str">
-        <f>VLOOKUP(A41,EMF_MASTER_FILE!A:H,2)</f>
-        <v>BSB</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="B42" t="str">
-        <f>VLOOKUP(A42,EMF_MASTER_FILE!A:H,2)</f>
-        <v>Bank_account_number</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="B43">
-        <f>VLOOKUP(A43,EMF_MASTER_FILE!A:H,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
-        <v>361</v>
-      </c>
-      <c r="B44">
-        <f>VLOOKUP(A44,EMF_MASTER_FILE!A:H,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="B45">
-        <f>VLOOKUP(A45,EMF_MASTER_FILE!A:H,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="B46">
-        <f>VLOOKUP(A46,EMF_MASTER_FILE!A:H,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="B47">
-        <f>VLOOKUP(A47,EMF_MASTER_FILE!A:H,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="B48">
-        <f>VLOOKUP(A48,EMF_MASTER_FILE!A:H,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="B49">
-        <f>VLOOKUP(A49,EMF_MASTER_FILE!A:H,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="B50">
-        <f>VLOOKUP(A50,EMF_MASTER_FILE!A:H,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B51">
-        <f>VLOOKUP(A51,EMF_MASTER_FILE!A:H,2)</f>
-        <v>0</v>
-      </c>
+      <c r="C28" s="96" t="str">
+        <f>VLOOKUP(A28,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Position</v>
+      </c>
+      <c r="D28" s="96" t="s">
+        <v>479</v>
+      </c>
+      <c r="E28" s="97" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="95"/>
+      <c r="B29" s="96" t="e">
+        <f>VLOOKUP(A29,EMF_MASTER_FILE!A:B,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C29" s="96" t="e">
+        <f>VLOOKUP(A29,EMF_MASTER_FILE!A:F,6)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="95"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="95"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="98"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" location="EMF_MASTER_FILE!A1" display="EMF_MASTER_FILE"/>
+    <hyperlink ref="A3" location="Employee_Master_Analytics!A1" display="Employee_Master_Analytics"/>
+    <hyperlink ref="A2" location="General!A1" display="General"/>
+    <hyperlink ref="A1" location="Read_Me!A1" display="Read_Me"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Internal_values!$F$3:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10:B11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>EMF_MASTER_FILE!$A$6:$A$65</xm:f>
+          </x14:formula1>
+          <xm:sqref>A16:A21 A26:A32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Internal_values!$H$3:$H$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>D26:D32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
@@ -3468,64 +5185,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="28" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="27" t="str">
         <f>INDEX(EMF_MASTER_FILE!G6:G53,MATCH(0,INDEX(COUNTIF($B$1:B1,$A$2:$A$5),0,0),0))</f>
         <v>Employee</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="29" t="str">
+      <c r="F3" s="27" t="str">
         <f>INDEX(EMF_LEAVES!G3:G21,MATCH(0,INDEX(COUNTIF($B$1:F1,$A$2:$A$5),0,0),0))</f>
         <v>EmplLeaveRequest</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="str">
+      <c r="B4" s="27" t="str">
         <f>INDEX(EMF_MASTER_FILE!G6:G53,MATCH(0,INDEX(COUNTIF($B$1:B2,$A$2:$A$5),0,0),0))</f>
         <v>Employee</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="29" t="str">
+      <c r="F4" s="27" t="str">
         <f>INDEX(EMF_BANKACC!G3:G10,MATCH(0,INDEX(COUNTIF($B$1:F2,$A$2:$A$5),0,0),0))</f>
         <v>Employee</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="str">
+      <c r="B5" s="27" t="str">
         <f>INDEX(EMF_MASTER_FILE!G6:G53,MATCH(0,INDEX(COUNTIF($B$1:B3,$A$2:$A$5),0,0),0))</f>
         <v>Employee</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="27" t="str">
         <f>INDEX(PAYROLL_PAYMENTS!F3:F10,MATCH(0,INDEX(COUNTIF($B$1:F3,$A$2:$A$5),0,0),0))</f>
         <v>EMP_PR</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="27" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3557,13 +5274,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="38" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
@@ -3571,12 +5286,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>222</v>
       </c>
       <c r="C4" t="s">
@@ -3673,662 +5388,831 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="12" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="43"/>
-    <col min="4" max="4" width="134.85546875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="43"/>
-    <col min="6" max="6" width="7" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="43"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D4" t="s">
+        <v>452</v>
+      </c>
+      <c r="F4" t="s">
+        <v>463</v>
+      </c>
+      <c r="H4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" t="s">
+        <v>453</v>
+      </c>
+      <c r="H5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" t="s">
+        <v>456</v>
+      </c>
+      <c r="H8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" t="s">
+        <v>457</v>
+      </c>
+      <c r="H9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>458</v>
+      </c>
+      <c r="H10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="12" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="41"/>
+    <col min="4" max="4" width="134.85546875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="41"/>
+    <col min="6" max="6" width="7" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="41"/>
+    <col min="13" max="13" width="19.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="41"/>
+    <col min="15" max="15" width="18.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>393</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="80" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="77" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="78" t="s">
         <v>437</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="77" t="s">
+      <c r="G3" s="79"/>
+      <c r="H3" s="78" t="s">
         <v>439</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77" t="s">
+      <c r="I3" s="79"/>
+      <c r="J3" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="K3" s="78"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="72" t="s">
         <v>438</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="40" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="M4" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="O4" s="72" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="64"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="62"/>
+      <c r="M5" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
-    </row>
-    <row r="7" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+    </row>
+    <row r="7" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-    </row>
-    <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
+    </row>
+    <row r="8" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-    </row>
-    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="62"/>
+    </row>
+    <row r="9" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="59" t="s">
         <v>398</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50" t="s">
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50" t="s">
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="73" t="s">
         <v>405</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50" t="s">
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="73" t="s">
         <v>404</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50" t="s">
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="73" t="s">
         <v>403</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50" t="s">
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="73" t="s">
         <v>402</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50" t="s">
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="73" t="s">
         <v>401</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="73" t="s">
         <v>406</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="73" t="s">
         <v>400</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="59" t="s">
         <v>415</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
+      <c r="D21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="59" t="s">
         <v>417</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="D24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
+      <c r="D25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="59" t="s">
         <v>419</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="64"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64"/>
+      <c r="D27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
+      <c r="D28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="62"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="59" t="s">
         <v>421</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="64"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="62"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="64"/>
+      <c r="D30" s="59"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="62"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="64"/>
+      <c r="D31" s="59"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
+      <c r="D32" s="59"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="59" t="s">
         <v>420</v>
       </c>
-      <c r="F33" s="62" t="s">
+      <c r="F33" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64"/>
+      <c r="D34" s="59"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="64"/>
+      <c r="D35" s="59"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="64"/>
+      <c r="D36" s="59"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="62"/>
     </row>
     <row r="37" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="59" t="s">
         <v>422</v>
       </c>
-      <c r="F37" s="62" t="s">
+      <c r="F37" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="64"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="62"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="F38" s="62" t="s">
+      <c r="D38" s="59"/>
+      <c r="F38" s="60" t="s">
         <v>441</v>
       </c>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="64"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="62"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="51"/>
-      <c r="B39" s="52" t="s">
+      <c r="A39" s="49"/>
+      <c r="B39" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="D39" s="76"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="68"/>
+      <c r="D39" s="74"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F1:K1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Read_Me!A1" display="Back to Read_Me Workbook"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Internal_values!$D$3:$D$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>M5:M39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Internal_values!$B$3:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>O5:O39</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4338,102 +6222,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4445,1427 +6329,1425 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="44"/>
-    <col min="2" max="2" width="21.28515625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="43" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="43" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="43" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="43"/>
-    <col min="12" max="12" width="21.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="71" style="44" customWidth="1"/>
-    <col min="14" max="16384" width="14.42578125" style="43"/>
+    <col min="1" max="1" width="14.42578125" style="42"/>
+    <col min="2" max="2" width="21.28515625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="41" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="41" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="41" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="41"/>
+    <col min="12" max="12" width="21.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="71" style="42" customWidth="1"/>
+    <col min="14" max="16384" width="14.42578125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84" t="s">
+      <c r="H4" s="85"/>
+      <c r="I4" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="L4" s="44" t="s">
+      <c r="J4" s="87"/>
+      <c r="L4" s="42" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="58" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="76" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="68">
         <v>20</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="64"/>
-      <c r="L6" s="44" t="s">
+      <c r="I6" s="60"/>
+      <c r="J6" s="62"/>
+      <c r="L6" s="42" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="61">
         <v>20</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="64"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="62"/>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="61">
         <v>1</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64" t="s">
+      <c r="E8" s="61"/>
+      <c r="F8" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="64"/>
-      <c r="L8" s="44" t="s">
+      <c r="I8" s="60"/>
+      <c r="J8" s="62"/>
+      <c r="L8" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="42" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="61">
         <v>20</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64" t="s">
+      <c r="E9" s="61"/>
+      <c r="F9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="64"/>
-      <c r="L9" s="44" t="s">
+      <c r="I9" s="60"/>
+      <c r="J9" s="62"/>
+      <c r="L9" s="42" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="61">
         <v>20</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64" t="s">
+      <c r="E10" s="61"/>
+      <c r="F10" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="64"/>
-      <c r="L10" s="44" t="s">
+      <c r="I10" s="60"/>
+      <c r="J10" s="62"/>
+      <c r="L10" s="42" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="61">
         <v>5</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64" t="s">
+      <c r="E11" s="61"/>
+      <c r="F11" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="64"/>
-      <c r="L11" s="44" t="s">
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="62"/>
+      <c r="L11" s="42" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="61">
         <v>20</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64" t="s">
+      <c r="E12" s="61"/>
+      <c r="F12" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="64"/>
-      <c r="L12" s="44" t="s">
+      <c r="I12" s="60"/>
+      <c r="J12" s="62"/>
+      <c r="L12" s="42" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="61">
         <v>20</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64" t="s">
+      <c r="E13" s="61"/>
+      <c r="F13" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="64"/>
-      <c r="L13" s="44" t="s">
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="62"/>
+      <c r="L13" s="42" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="61">
         <v>20</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64" t="s">
+      <c r="E14" s="61"/>
+      <c r="F14" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="64"/>
-      <c r="L14" s="44" t="s">
+      <c r="I14" s="60"/>
+      <c r="J14" s="62"/>
+      <c r="L14" s="42" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="61">
         <v>61</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64" t="s">
+      <c r="E15" s="61"/>
+      <c r="F15" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="64"/>
-      <c r="L15" s="44" t="s">
+      <c r="I15" s="60"/>
+      <c r="J15" s="62"/>
+      <c r="L15" s="42" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>329</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="61">
         <v>61</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64" t="s">
+      <c r="E16" s="61"/>
+      <c r="F16" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="64"/>
-      <c r="L16" s="44" t="s">
+      <c r="I16" s="60"/>
+      <c r="J16" s="62"/>
+      <c r="L16" s="42" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="61">
         <v>61</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64" t="s">
+      <c r="E17" s="61"/>
+      <c r="F17" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="64"/>
-      <c r="L17" s="44" t="s">
+      <c r="I17" s="60"/>
+      <c r="J17" s="62"/>
+      <c r="L17" s="42" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="61">
         <v>35</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64" t="s">
+      <c r="E18" s="61"/>
+      <c r="F18" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="64"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="61">
         <v>29</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64" t="s">
+      <c r="E19" s="61"/>
+      <c r="F19" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="64"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="61">
         <v>11</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64" t="s">
+      <c r="E20" s="61"/>
+      <c r="F20" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G20" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="64"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="62"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="61">
         <v>61</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64" t="s">
+      <c r="E21" s="61"/>
+      <c r="F21" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="H21" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="64"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="62"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="61">
         <v>21</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64" t="s">
+      <c r="E22" s="61"/>
+      <c r="F22" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="G22" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="64"/>
-      <c r="L22" s="44" t="s">
+      <c r="I22" s="60"/>
+      <c r="J22" s="62"/>
+      <c r="L22" s="42" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="61">
         <v>21</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64" t="s">
+      <c r="E23" s="61"/>
+      <c r="F23" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="64"/>
-      <c r="L23" s="44" t="s">
+      <c r="I23" s="60"/>
+      <c r="J23" s="62"/>
+      <c r="L23" s="42" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="59" t="s">
         <v>337</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="61">
         <v>21</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64" t="s">
+      <c r="E24" s="61"/>
+      <c r="F24" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="64"/>
-      <c r="L24" s="44" t="s">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="62"/>
+      <c r="L24" s="42" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="61">
         <v>21</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="64" t="s">
+      <c r="E25" s="61"/>
+      <c r="F25" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="64"/>
-      <c r="L25" s="44" t="s">
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="62"/>
+      <c r="L25" s="42" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="61">
         <v>40</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="64" t="s">
+      <c r="E26" s="61"/>
+      <c r="F26" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="I26" s="62"/>
-      <c r="J26" s="64"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="62"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="61">
         <v>36</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64" t="s">
+      <c r="E27" s="61"/>
+      <c r="F27" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="64"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="62"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="63">
+      <c r="D28" s="61">
         <v>10</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64" t="s">
+      <c r="E28" s="61"/>
+      <c r="F28" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="64"/>
-      <c r="L28" s="44" t="s">
+      <c r="G28" s="61"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="62"/>
+      <c r="L28" s="42" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="61">
         <v>3</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64" t="s">
+      <c r="E29" s="61"/>
+      <c r="F29" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="64" t="s">
+      <c r="H29" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="I29" s="62"/>
-      <c r="J29" s="64"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="62"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="63">
+      <c r="D30" s="61">
         <v>11</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64" t="s">
+      <c r="E30" s="61"/>
+      <c r="F30" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="64" t="s">
+      <c r="H30" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="I30" s="62"/>
-      <c r="J30" s="64"/>
-      <c r="L30" s="44" t="s">
+      <c r="I30" s="60"/>
+      <c r="J30" s="62"/>
+      <c r="L30" s="42" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="63">
+      <c r="D31" s="61">
         <v>11</v>
       </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="64" t="s">
+      <c r="E31" s="61"/>
+      <c r="F31" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="G31" s="63" t="s">
+      <c r="G31" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="64" t="s">
+      <c r="H31" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="64"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="62"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="63">
+      <c r="D32" s="61">
         <v>30</v>
       </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64" t="s">
+      <c r="E32" s="61"/>
+      <c r="F32" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="64"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="62"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="61">
         <v>14</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="64" t="s">
+      <c r="E33" s="61"/>
+      <c r="F33" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="64"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="62"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="63">
+      <c r="D34" s="61">
         <v>15</v>
       </c>
-      <c r="E34" s="63">
+      <c r="E34" s="61">
         <v>2</v>
       </c>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="I34" s="62"/>
-      <c r="J34" s="64"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="62"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="61">
         <v>40</v>
       </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64" t="s">
+      <c r="E35" s="61"/>
+      <c r="F35" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H35" s="64" t="s">
+      <c r="H35" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="I35" s="62"/>
-      <c r="J35" s="64"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="62"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="59" t="s">
         <v>349</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="63">
+      <c r="D36" s="61">
         <v>10</v>
       </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="64" t="s">
+      <c r="E36" s="61"/>
+      <c r="F36" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="63"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="64"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="62"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="63">
+      <c r="D37" s="61">
         <v>10</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="64" t="s">
+      <c r="E37" s="61"/>
+      <c r="F37" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="64"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="62"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="63">
+      <c r="D38" s="61">
         <v>10</v>
       </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64" t="s">
+      <c r="E38" s="61"/>
+      <c r="F38" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="G38" s="63"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="64"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="62"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="59" t="s">
         <v>352</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="61">
         <v>10</v>
       </c>
-      <c r="E39" s="63"/>
-      <c r="F39" s="64" t="s">
+      <c r="E39" s="61"/>
+      <c r="F39" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="G39" s="63"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="64"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="62"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="63">
+      <c r="D40" s="61">
         <v>10</v>
       </c>
-      <c r="E40" s="63">
+      <c r="E40" s="61">
         <v>2</v>
       </c>
-      <c r="F40" s="64" t="s">
+      <c r="F40" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="G40" s="63"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="64"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="62"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="59" t="s">
         <v>354</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="63">
+      <c r="D41" s="61">
         <v>10</v>
       </c>
-      <c r="E41" s="63">
+      <c r="E41" s="61">
         <v>2</v>
       </c>
-      <c r="F41" s="64" t="s">
+      <c r="F41" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="G41" s="63" t="s">
+      <c r="G41" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H41" s="64" t="s">
+      <c r="H41" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="I41" s="62"/>
-      <c r="J41" s="64"/>
-      <c r="L41" s="44" t="s">
+      <c r="I41" s="60"/>
+      <c r="J41" s="62"/>
+      <c r="L41" s="42" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="59" t="s">
         <v>355</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="63">
+      <c r="D42" s="61">
         <v>10</v>
       </c>
-      <c r="E42" s="63">
+      <c r="E42" s="61">
         <v>2</v>
       </c>
-      <c r="F42" s="64" t="s">
+      <c r="F42" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="G42" s="63" t="s">
+      <c r="G42" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="64" t="s">
+      <c r="H42" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="J42" s="64"/>
-      <c r="L42" s="65"/>
+      <c r="J42" s="62"/>
+      <c r="L42" s="63"/>
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="61" t="s">
+      <c r="A43" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="61">
         <v>20</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="64" t="s">
+      <c r="E43" s="61"/>
+      <c r="F43" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="63" t="s">
+      <c r="G43" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H43" s="64" t="s">
+      <c r="H43" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="I43" s="62"/>
-      <c r="J43" s="64"/>
-      <c r="L43" s="44" t="s">
+      <c r="I43" s="60"/>
+      <c r="J43" s="62"/>
+      <c r="L43" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="M43" s="44" t="s">
+      <c r="M43" s="42" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="60" t="s">
         <v>381</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="63">
+      <c r="D44" s="61">
         <v>20</v>
       </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="64" t="s">
+      <c r="E44" s="61"/>
+      <c r="F44" s="62" t="s">
         <v>382</v>
       </c>
-      <c r="G44" s="63" t="s">
+      <c r="G44" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H44" s="64" t="s">
+      <c r="H44" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="I44" s="62"/>
-      <c r="J44" s="64"/>
-      <c r="L44" s="44" t="s">
+      <c r="I44" s="60"/>
+      <c r="J44" s="62"/>
+      <c r="L44" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="M44" s="44" t="s">
+      <c r="M44" s="42" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="61" t="s">
+      <c r="A45" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="63">
+      <c r="D45" s="61">
         <v>20</v>
       </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="64" t="s">
+      <c r="E45" s="61"/>
+      <c r="F45" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="I45" s="62"/>
-      <c r="J45" s="64"/>
-      <c r="L45" s="44" t="s">
+      <c r="I45" s="60"/>
+      <c r="J45" s="62"/>
+      <c r="L45" s="42" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="60" t="s">
         <v>410</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="63">
+      <c r="D46" s="61">
         <v>20</v>
       </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64" t="s">
+      <c r="E46" s="61"/>
+      <c r="F46" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="I46" s="62"/>
-      <c r="J46" s="64"/>
-      <c r="L46" s="44" t="s">
+      <c r="I46" s="60"/>
+      <c r="J46" s="62"/>
+      <c r="L46" s="42" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="64"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="64"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="62"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="64"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="64"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="62"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="59" t="s">
         <v>362</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="64"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="64"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="62"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="B50" s="62"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="64"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="62"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="64"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="62"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="59" t="s">
         <v>365</v>
       </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="64"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="62"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="61" t="s">
+      <c r="A53" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="64"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="62"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="64"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="62"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="64"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="62"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="64"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="62"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="64"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="62"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="61" t="s">
+      <c r="A58" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="B58" s="62"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="64"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="62"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="61" t="s">
+      <c r="A59" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="B59" s="62"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="64"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="62"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="59" t="s">
         <v>373</v>
       </c>
-      <c r="B60" s="62"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="64"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="62"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="61" t="s">
+      <c r="A61" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="B61" s="62"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="64"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="62"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="B62" s="62"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="64"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="62"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="61" t="s">
+      <c r="A63" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="64"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="62"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="59" t="s">
         <v>377</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="64"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="62"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="61" t="s">
+      <c r="A65" s="59" t="s">
         <v>378</v>
       </c>
-      <c r="B65" s="66"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="68"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5881,71 +7763,71 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:XFD2"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="43" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:13" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84" t="s">
+      <c r="H1" s="85"/>
+      <c r="I1" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="L1" s="44" t="s">
+      <c r="J1" s="87"/>
+      <c r="L1" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="M1" s="44"/>
-    </row>
-    <row r="2" spans="1:13" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="54" t="s">
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="89"/>
+      <c r="B2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -6317,7 +8199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -6339,61 +8221,61 @@
     <col min="12" max="12" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="43" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:13" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84" t="s">
+      <c r="H1" s="85"/>
+      <c r="I1" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="L1" s="44" t="s">
+      <c r="J1" s="87"/>
+      <c r="L1" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="M1" s="44"/>
-    </row>
-    <row r="2" spans="1:13" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="54" t="s">
+      <c r="M1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="89"/>
+      <c r="B2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6659,7 +8541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6672,712 +8554,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="F3:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="152.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5">
-        <v>10</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="10">
-        <v>10</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="10">
-        <v>10</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="10">
-        <v>10</v>
-      </c>
-      <c r="D18" s="10">
-        <v>2</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="10">
-        <v>20</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="20">
-        <v>10</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="20">
-        <v>10</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="14">
-        <v>10</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="14">
-        <v>10</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="14">
-        <v>10</v>
-      </c>
-      <c r="D24" s="14">
-        <v>2</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="14">
-        <v>10</v>
-      </c>
-      <c r="D25" s="14">
-        <v>2</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="14">
-        <v>10</v>
-      </c>
-      <c r="D26" s="14">
-        <v>2</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="14">
-        <v>10</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="14">
-        <v>10</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="14">
-        <v>10</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="14">
-        <v>20</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="14">
-        <v>20</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="14">
-        <v>20</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="14">
-        <v>20</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="14">
-        <v>20</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DOCUMENTS/A_DATA_MAPPING/_02_DataMapping.xlsx
+++ b/DOCUMENTS/A_DATA_MAPPING/_02_DataMapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" tabRatio="830" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" tabRatio="830" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Read_Me" sheetId="12" r:id="rId1"/>
@@ -18,9 +18,8 @@
     <sheet name="Acerno_Cache_XXXXX" sheetId="5" state="veryHidden" r:id="rId9"/>
     <sheet name="PAYROLL_PAYMENTS" sheetId="2" r:id="rId10"/>
     <sheet name="Gobal_Parameters" sheetId="7" r:id="rId11"/>
-    <sheet name="HR_101_FO" sheetId="6" r:id="rId12"/>
-    <sheet name="HR_101_Config" sheetId="14" r:id="rId13"/>
-    <sheet name="TABLE_LINK" sheetId="8" r:id="rId14"/>
+    <sheet name="HR_101_Config" sheetId="14" r:id="rId12"/>
+    <sheet name="TABLE_LINK" sheetId="8" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">EMF_MASTER_FILE!$L$10</definedName>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="488">
   <si>
     <t>Type</t>
   </si>
@@ -1904,13 +1903,16 @@
     <t>BETWEEN</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Clerk</t>
-  </si>
-  <si>
     <t>Read_Me</t>
+  </si>
+  <si>
+    <t>"A"</t>
+  </si>
+  <si>
+    <t>"Clerk"</t>
+  </si>
+  <si>
+    <t>`19990101`</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +2016,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2054,6 +2056,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2708,7 +2716,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2901,70 +2909,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2975,15 +2933,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
@@ -2991,17 +2940,81 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -3309,7 +3322,7 @@
   <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3320,10 +3333,10 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="91" t="s">
         <v>383</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="92" t="s">
         <v>392</v>
       </c>
     </row>
@@ -4082,7 +4095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4094,759 +4107,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" style="41" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="41"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
-        <v>486</v>
-      </c>
-      <c r="B1"/>
-      <c r="C1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
-        <v>384</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
-        <v>386</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
-        <v>390</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="90"/>
-      <c r="B5"/>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="112" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="113"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="str">
-        <f>Employee_Master_Analytics!A7</f>
-        <v>EM003</v>
-      </c>
-      <c r="B7" s="91" t="str">
-        <f>Employee_Master_Analytics!B7</f>
-        <v>Identify Duplicate employees by Name</v>
-      </c>
-      <c r="C7" s="114"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>460</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
-        <v>321</v>
-      </c>
-      <c r="B11" s="41">
-        <f>VLOOKUP(A11,EMF_MASTER_FILE!A:B,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="41">
-        <f>VLOOKUP(A11,EMF_MASTER_FILE!A:F,6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
-        <v>320</v>
-      </c>
-      <c r="B12" s="41">
-        <f>VLOOKUP(A12,EMF_MASTER_FILE!A:B,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="41">
-        <f>VLOOKUP(A12,EMF_MASTER_FILE!A:F,6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="77" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" s="41" t="str">
-        <f>VLOOKUP(A13,EMF_MASTER_FILE!A:B,2)</f>
-        <v>EMP_Sts</v>
-      </c>
-      <c r="C13" s="41" t="str">
-        <f>VLOOKUP(A13,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Employee Status</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
-        <v>322</v>
-      </c>
-      <c r="B14" s="41" t="str">
-        <f>VLOOKUP(A14,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Emp_ID</v>
-      </c>
-      <c r="C14" s="41" t="str">
-        <f>VLOOKUP(A14,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Employee Code</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
-        <v>323</v>
-      </c>
-      <c r="B15" s="41" t="str">
-        <f>VLOOKUP(A15,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Tax_Fle_Num</v>
-      </c>
-      <c r="C15" s="41" t="str">
-        <f>VLOOKUP(A15,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Tax File Number</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
-        <v>324</v>
-      </c>
-      <c r="B16" s="41" t="str">
-        <f>VLOOKUP(A16,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Title</v>
-      </c>
-      <c r="C16" s="41" t="str">
-        <f>VLOOKUP(A16,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Position</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
-        <v>325</v>
-      </c>
-      <c r="B17" s="41" t="str">
-        <f>VLOOKUP(A17,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Frst_Nme</v>
-      </c>
-      <c r="C17" s="41" t="str">
-        <f>VLOOKUP(A17,EMF_MASTER_FILE!A:F,6)</f>
-        <v>First Name / Given Name</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="77" t="s">
-        <v>326</v>
-      </c>
-      <c r="B18" s="41" t="str">
-        <f>VLOOKUP(A18,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Second_Given_Name</v>
-      </c>
-      <c r="C18" s="41" t="str">
-        <f>VLOOKUP(A18,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Second Given Name</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
-        <v>327</v>
-      </c>
-      <c r="B19" s="41" t="str">
-        <f>VLOOKUP(A19,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Sur_Nme</v>
-      </c>
-      <c r="C19" s="41" t="str">
-        <f>VLOOKUP(A19,EMF_MASTER_FILE!A:F,6)</f>
-        <v>SurName / Family Name</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="B20" s="41" t="str">
-        <f>VLOOKUP(A20,EMF_MASTER_FILE!A:B,2)</f>
-        <v>ADD1</v>
-      </c>
-      <c r="C20" s="41" t="str">
-        <f>VLOOKUP(A20,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Address 1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
-        <v>329</v>
-      </c>
-      <c r="B21" s="41" t="str">
-        <f>VLOOKUP(A21,EMF_MASTER_FILE!A:B,2)</f>
-        <v>ADD2</v>
-      </c>
-      <c r="C21" s="41" t="str">
-        <f>VLOOKUP(A21,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Address 2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
-        <v>330</v>
-      </c>
-      <c r="B22" s="41" t="str">
-        <f>VLOOKUP(A22,EMF_MASTER_FILE!A:B,2)</f>
-        <v>ADD3</v>
-      </c>
-      <c r="C22" s="41" t="str">
-        <f>VLOOKUP(A22,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Address 3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
-        <v>331</v>
-      </c>
-      <c r="B23" s="41" t="str">
-        <f>VLOOKUP(A23,EMF_MASTER_FILE!A:B,2)</f>
-        <v>City</v>
-      </c>
-      <c r="C23" s="41" t="str">
-        <f>VLOOKUP(A23,EMF_MASTER_FILE!A:F,6)</f>
-        <v>City</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
-        <v>332</v>
-      </c>
-      <c r="B24" s="41" t="str">
-        <f>VLOOKUP(A24,EMF_MASTER_FILE!A:B,2)</f>
-        <v>State</v>
-      </c>
-      <c r="C24" s="41" t="str">
-        <f>VLOOKUP(A24,EMF_MASTER_FILE!A:F,6)</f>
-        <v>State</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
-        <v>333</v>
-      </c>
-      <c r="B25" s="41" t="str">
-        <f>VLOOKUP(A25,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Pcode</v>
-      </c>
-      <c r="C25" s="41" t="str">
-        <f>VLOOKUP(A25,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Post Code</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
-        <v>334</v>
-      </c>
-      <c r="B26" s="41" t="str">
-        <f>VLOOKUP(A26,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Cntry</v>
-      </c>
-      <c r="C26" s="41" t="str">
-        <f>VLOOKUP(A26,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Country</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="B27" s="41" t="str">
-        <f>VLOOKUP(A27,EMF_MASTER_FILE!A:B,2)</f>
-        <v>TEL1</v>
-      </c>
-      <c r="C27" s="41" t="str">
-        <f>VLOOKUP(A27,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Telephone 1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
-        <v>336</v>
-      </c>
-      <c r="B28" s="41" t="str">
-        <f>VLOOKUP(A28,EMF_MASTER_FILE!A:B,2)</f>
-        <v>TEL2</v>
-      </c>
-      <c r="C28" s="41" t="str">
-        <f>VLOOKUP(A28,EMF_MASTER_FILE!A:F,6)</f>
-        <v xml:space="preserve">Teltphone 2 </v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
-        <v>337</v>
-      </c>
-      <c r="B29" s="41" t="str">
-        <f>VLOOKUP(A29,EMF_MASTER_FILE!A:B,2)</f>
-        <v>TEL3</v>
-      </c>
-      <c r="C29" s="41" t="str">
-        <f>VLOOKUP(A29,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Telephone 3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="s">
-        <v>338</v>
-      </c>
-      <c r="B30" s="41" t="str">
-        <f>VLOOKUP(A30,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Fax</v>
-      </c>
-      <c r="C30" s="41" t="str">
-        <f>VLOOKUP(A30,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Fax</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="77" t="s">
-        <v>339</v>
-      </c>
-      <c r="B31" s="41" t="str">
-        <f>VLOOKUP(A31,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Email_Bus</v>
-      </c>
-      <c r="C31" s="41" t="str">
-        <f>VLOOKUP(A31,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Email (Business)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="77" t="s">
-        <v>340</v>
-      </c>
-      <c r="B32" s="41" t="str">
-        <f>VLOOKUP(A32,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Email_Privt</v>
-      </c>
-      <c r="C32" s="41" t="str">
-        <f>VLOOKUP(A32,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Email (Private)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="B33" s="41" t="str">
-        <f>VLOOKUP(A33,EMF_MASTER_FILE!A:B,2)</f>
-        <v>DOB</v>
-      </c>
-      <c r="C33" s="41" t="str">
-        <f>VLOOKUP(A33,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Date of Birth</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="77" t="s">
-        <v>342</v>
-      </c>
-      <c r="B34" s="41" t="str">
-        <f>VLOOKUP(A34,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Sex</v>
-      </c>
-      <c r="C34" s="41" t="str">
-        <f>VLOOKUP(A34,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Sex/Gender</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="77" t="s">
-        <v>343</v>
-      </c>
-      <c r="B35" s="41" t="str">
-        <f>VLOOKUP(A35,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Hire_Dt</v>
-      </c>
-      <c r="C35" s="41" t="str">
-        <f>VLOOKUP(A35,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Commence / Start / Hired Date</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="77" t="s">
-        <v>344</v>
-      </c>
-      <c r="B36" s="41" t="str">
-        <f>VLOOKUP(A36,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Trm_Dt</v>
-      </c>
-      <c r="C36" s="41" t="str">
-        <f>VLOOKUP(A36,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Termination Date</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="77" t="s">
-        <v>345</v>
-      </c>
-      <c r="B37" s="41" t="str">
-        <f>VLOOKUP(A37,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Term_Reason_Desc</v>
-      </c>
-      <c r="C37" s="41" t="str">
-        <f>VLOOKUP(A37,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Termination Reason Description</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="77" t="s">
-        <v>346</v>
-      </c>
-      <c r="B38" s="41" t="str">
-        <f>VLOOKUP(A38,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Mrtl_Sts</v>
-      </c>
-      <c r="C38" s="41" t="str">
-        <f>VLOOKUP(A38,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Marital Status</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="77" t="s">
-        <v>347</v>
-      </c>
-      <c r="B39" s="41" t="str">
-        <f>VLOOKUP(A39,EMF_MASTER_FILE!A:B,2)</f>
-        <v>AUTOPAY_HOURS_DAYS</v>
-      </c>
-      <c r="C39" s="41" t="str">
-        <f>VLOOKUP(A39,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Auto Pay Hours / Days</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
-        <v>348</v>
-      </c>
-      <c r="B40" s="41" t="str">
-        <f>VLOOKUP(A40,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Emp_Catg</v>
-      </c>
-      <c r="C40" s="41" t="str">
-        <f>VLOOKUP(A40,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Employee Type Description</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="77" t="s">
-        <v>349</v>
-      </c>
-      <c r="B41" s="41" t="str">
-        <f>VLOOKUP(A41,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Created_Dt</v>
-      </c>
-      <c r="C41" s="41" t="str">
-        <f>VLOOKUP(A41,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Created Date</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="77" t="s">
-        <v>350</v>
-      </c>
-      <c r="B42" s="41" t="str">
-        <f>VLOOKUP(A42,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Modf_Dt</v>
-      </c>
-      <c r="C42" s="41" t="str">
-        <f>VLOOKUP(A42,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Modified Date</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="77" t="s">
-        <v>351</v>
-      </c>
-      <c r="B43" s="41" t="str">
-        <f>VLOOKUP(A43,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Commencement_Dt</v>
-      </c>
-      <c r="C43" s="41" t="str">
-        <f>VLOOKUP(A43,EMF_MASTER_FILE!A:F,6)</f>
-        <v>CommencementDate</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="77" t="s">
-        <v>352</v>
-      </c>
-      <c r="B44" s="41" t="str">
-        <f>VLOOKUP(A44,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Anniversary_Dt</v>
-      </c>
-      <c r="C44" s="41" t="str">
-        <f>VLOOKUP(A44,EMF_MASTER_FILE!A:F,6)</f>
-        <v>AnniversaryDate</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="B45" s="41" t="str">
-        <f>VLOOKUP(A45,EMF_MASTER_FILE!A:B,2)</f>
-        <v>SLTotalUnits</v>
-      </c>
-      <c r="C45" s="41" t="str">
-        <f>VLOOKUP(A45,EMF_MASTER_FILE!A:F,6)</f>
-        <v>SLTotalUnits</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="77" t="s">
-        <v>354</v>
-      </c>
-      <c r="B46" s="41" t="str">
-        <f>VLOOKUP(A46,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Total_PayAmt</v>
-      </c>
-      <c r="C46" s="41" t="str">
-        <f>VLOOKUP(A46,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Total_PayAmt</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="77" t="s">
-        <v>355</v>
-      </c>
-      <c r="B47" s="41" t="str">
-        <f>VLOOKUP(A47,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Total_Pay_Num</v>
-      </c>
-      <c r="C47" s="41" t="str">
-        <f>VLOOKUP(A47,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Total_Pay_Num</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="77" t="s">
-        <v>356</v>
-      </c>
-      <c r="B48" s="41" t="str">
-        <f>VLOOKUP(A48,EMF_MASTER_FILE!A:B,2)</f>
-        <v>COST_CENTRE</v>
-      </c>
-      <c r="C48" s="41" t="str">
-        <f>VLOOKUP(A48,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Cost Centre/Department</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="77" t="s">
-        <v>357</v>
-      </c>
-      <c r="B49" s="41" t="str">
-        <f>VLOOKUP(A49,EMF_MASTER_FILE!A:B,2)</f>
-        <v>COST_CENTRE_DESC</v>
-      </c>
-      <c r="C49" s="41" t="str">
-        <f>VLOOKUP(A49,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Cost Centre/Department Description</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
-        <v>358</v>
-      </c>
-      <c r="B50" s="41" t="str">
-        <f>VLOOKUP(A50,EMF_MASTER_FILE!A:B,2)</f>
-        <v>BSB</v>
-      </c>
-      <c r="C50" s="41" t="str">
-        <f>VLOOKUP(A50,EMF_MASTER_FILE!A:F,6)</f>
-        <v>BSB</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="77" t="s">
-        <v>359</v>
-      </c>
-      <c r="B51" s="41" t="str">
-        <f>VLOOKUP(A51,EMF_MASTER_FILE!A:B,2)</f>
-        <v>Bank_account_number</v>
-      </c>
-      <c r="C51" s="41" t="str">
-        <f>VLOOKUP(A51,EMF_MASTER_FILE!A:F,6)</f>
-        <v>Bank Account Number</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="77" t="s">
-        <v>360</v>
-      </c>
-      <c r="B52" s="41">
-        <f>VLOOKUP(A52,EMF_MASTER_FILE!A:B,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="41">
-        <f>VLOOKUP(A52,EMF_MASTER_FILE!A:F,6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="77" t="s">
-        <v>361</v>
-      </c>
-      <c r="B53" s="41">
-        <f>VLOOKUP(A53,EMF_MASTER_FILE!A:B,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="41">
-        <f>VLOOKUP(A53,EMF_MASTER_FILE!A:F,6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="77" t="s">
-        <v>362</v>
-      </c>
-      <c r="B54" s="41">
-        <f>VLOOKUP(A54,EMF_MASTER_FILE!A:B,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C54" s="41">
-        <f>VLOOKUP(A54,EMF_MASTER_FILE!A:F,6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="77" t="s">
-        <v>363</v>
-      </c>
-      <c r="B55" s="41">
-        <f>VLOOKUP(A55,EMF_MASTER_FILE!A:B,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="41">
-        <f>VLOOKUP(A55,EMF_MASTER_FILE!A:F,6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="77" t="s">
-        <v>364</v>
-      </c>
-      <c r="B56" s="41">
-        <f>VLOOKUP(A56,EMF_MASTER_FILE!A:B,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="41">
-        <f>VLOOKUP(A56,EMF_MASTER_FILE!A:F,6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="77" t="s">
-        <v>365</v>
-      </c>
-      <c r="B57" s="41">
-        <f>VLOOKUP(A57,EMF_MASTER_FILE!A:B,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="41">
-        <f>VLOOKUP(A57,EMF_MASTER_FILE!A:F,6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="77" t="s">
-        <v>366</v>
-      </c>
-      <c r="B58" s="41">
-        <f>VLOOKUP(A58,EMF_MASTER_FILE!A:B,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="41">
-        <f>VLOOKUP(A58,EMF_MASTER_FILE!A:F,6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="77" t="s">
-        <v>367</v>
-      </c>
-      <c r="B59" s="41">
-        <f>VLOOKUP(A59,EMF_MASTER_FILE!A:B,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C59" s="41">
-        <f>VLOOKUP(A59,EMF_MASTER_FILE!A:F,6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="77" t="s">
-        <v>368</v>
-      </c>
-      <c r="B60" s="41">
-        <f>VLOOKUP(A60,EMF_MASTER_FILE!A:B,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C60" s="41">
-        <f>VLOOKUP(A60,EMF_MASTER_FILE!A:F,6)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A4" location="EMF_MASTER_FILE!A1" display="EMF_MASTER_FILE"/>
-    <hyperlink ref="A3" location="Employee_Master_Analytics!A1" display="Employee_Master_Analytics"/>
-    <hyperlink ref="A2" location="General!A1" display="General"/>
-    <hyperlink ref="A1" location="Read_Me!A1" display="Read_Me"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="90" customWidth="1"/>
+    <col min="1" max="1" width="27" style="78" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -4854,22 +4123,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
-        <v>486</v>
+      <c r="A1" s="90" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="90" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="90" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="90" t="s">
         <v>390</v>
       </c>
     </row>
@@ -4878,152 +4147,152 @@
       <c r="A6" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="105" t="s">
         <v>310</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="106"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="72" t="str">
         <f>Employee_Master_Analytics!A7</f>
         <v>EM003</v>
       </c>
-      <c r="B7" s="91" t="str">
+      <c r="B7" s="107" t="str">
         <f>Employee_Master_Analytics!B7</f>
         <v>Identify Duplicate employees by Name</v>
       </c>
-      <c r="C7" s="114"/>
+      <c r="C7" s="108"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="85" t="s">
         <v>466</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="86" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="80" t="s">
         <v>464</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="81" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="82" t="s">
         <v>465</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="83" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="109" t="s">
         <v>468</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="101"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="79" t="s">
         <v>469</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>470</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="84" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="80" t="s">
         <v>322</v>
       </c>
-      <c r="B16" s="96" t="str">
+      <c r="B16" s="115" t="str">
         <f>VLOOKUP(A16,EMF_MASTER_FILE!A:B,2)</f>
         <v>Emp_ID</v>
       </c>
-      <c r="C16" s="97" t="str">
+      <c r="C16" s="116" t="str">
         <f>VLOOKUP(A16,EMF_MASTER_FILE!A:F,6)</f>
         <v>Employee Code</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="80" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="96" t="str">
+      <c r="B17" s="115" t="str">
         <f>VLOOKUP(A17,EMF_MASTER_FILE!A:B,2)</f>
         <v>Tax_Fle_Num</v>
       </c>
-      <c r="C17" s="97" t="str">
+      <c r="C17" s="116" t="str">
         <f>VLOOKUP(A17,EMF_MASTER_FILE!A:F,6)</f>
         <v>Tax File Number</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="80" t="s">
         <v>319</v>
       </c>
-      <c r="B18" s="96" t="str">
+      <c r="B18" s="115" t="str">
         <f>VLOOKUP(A18,EMF_MASTER_FILE!A:B,2)</f>
         <v>EMP_Sts</v>
       </c>
-      <c r="C18" s="97" t="str">
+      <c r="C18" s="116" t="str">
         <f>VLOOKUP(A18,EMF_MASTER_FILE!A:F,6)</f>
         <v>Employee Status</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="96" t="e">
+      <c r="A19" s="80"/>
+      <c r="B19" s="115" t="e">
         <f>VLOOKUP(A19,EMF_MASTER_FILE!A:B,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="C19" s="97" t="e">
+      <c r="C19" s="116" t="e">
         <f>VLOOKUP(A19,EMF_MASTER_FILE!A:F,6)</f>
         <v>#N/A</v>
       </c>
-      <c r="D19" s="110"/>
+      <c r="D19" s="89"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="96" t="e">
+      <c r="A20" s="80"/>
+      <c r="B20" s="115" t="e">
         <f>VLOOKUP(A20,EMF_MASTER_FILE!A:B,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="C20" s="97" t="e">
+      <c r="C20" s="116" t="e">
         <f>VLOOKUP(A20,EMF_MASTER_FILE!A:F,6)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
-      <c r="B21" s="99" t="e">
+      <c r="A21" s="82"/>
+      <c r="B21" s="117" t="e">
         <f>VLOOKUP(A21,EMF_MASTER_FILE!A:B,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="C21" s="100" t="e">
+      <c r="C21" s="118" t="e">
         <f>VLOOKUP(A21,EMF_MASTER_FILE!A:F,6)</f>
         <v>#N/A</v>
       </c>
-      <c r="D21" s="109"/>
+      <c r="D21" s="88"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="112" t="s">
         <v>472</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="114"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="79" t="s">
         <v>469</v>
       </c>
       <c r="B25" s="39" t="s">
@@ -5032,99 +4301,787 @@
       <c r="C25" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="D25" s="105" t="s">
+      <c r="D25" s="87" t="s">
         <v>473</v>
       </c>
-      <c r="E25" s="102" t="s">
+      <c r="E25" s="84" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="80" t="s">
         <v>319</v>
       </c>
-      <c r="B26" s="96" t="str">
+      <c r="B26" s="115" t="str">
         <f>VLOOKUP(A26,EMF_MASTER_FILE!A:B,2)</f>
         <v>EMP_Sts</v>
       </c>
-      <c r="C26" s="96" t="str">
+      <c r="C26" s="115" t="str">
         <f>VLOOKUP(A26,EMF_MASTER_FILE!A:F,6)</f>
         <v>Employee Status</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="115" t="s">
         <v>475</v>
       </c>
-      <c r="E26" s="97" t="s">
-        <v>484</v>
+      <c r="E26" s="116" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
-      <c r="B27" s="96" t="e">
+      <c r="A27" s="80"/>
+      <c r="B27" s="115" t="e">
         <f>VLOOKUP(A27,EMF_MASTER_FILE!A:B,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="C27" s="96" t="e">
+      <c r="C27" s="115" t="e">
         <f>VLOOKUP(A27,EMF_MASTER_FILE!A:F,6)</f>
         <v>#N/A</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="115" t="s">
         <v>481</v>
       </c>
-      <c r="E27" s="97"/>
+      <c r="E27" s="116"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="80" t="s">
         <v>324</v>
       </c>
-      <c r="B28" s="96" t="str">
+      <c r="B28" s="115" t="str">
         <f>VLOOKUP(A28,EMF_MASTER_FILE!A:B,2)</f>
         <v>Title</v>
       </c>
-      <c r="C28" s="96" t="str">
+      <c r="C28" s="115" t="str">
         <f>VLOOKUP(A28,EMF_MASTER_FILE!A:F,6)</f>
         <v>Position</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="115" t="s">
         <v>479</v>
       </c>
-      <c r="E28" s="97" t="s">
-        <v>485</v>
+      <c r="E28" s="116" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="96" t="e">
+      <c r="A29" s="80"/>
+      <c r="B29" s="115" t="e">
         <f>VLOOKUP(A29,EMF_MASTER_FILE!A:B,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="C29" s="96" t="e">
+      <c r="C29" s="115" t="e">
         <f>VLOOKUP(A29,EMF_MASTER_FILE!A:F,6)</f>
         <v>#N/A</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="97"/>
+      <c r="D29" s="115" t="s">
+        <v>482</v>
+      </c>
+      <c r="E29" s="116"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="97"/>
+      <c r="A30" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="B30" s="115" t="str">
+        <f>VLOOKUP(A30,EMF_MASTER_FILE!A:B,2)</f>
+        <v>DOB</v>
+      </c>
+      <c r="C30" s="115" t="str">
+        <f>VLOOKUP(A30,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Date of Birth</v>
+      </c>
+      <c r="D30" s="115" t="s">
+        <v>475</v>
+      </c>
+      <c r="E30" s="116" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="115" t="e">
+        <f>VLOOKUP(A31,EMF_MASTER_FILE!A:B,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C31" s="115" t="e">
+        <f>VLOOKUP(A31,EMF_MASTER_FILE!A:F,6)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D31" s="115"/>
+      <c r="E31" s="116"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="98"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="100"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="115" t="e">
+        <f>VLOOKUP(A32,EMF_MASTER_FILE!A:B,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C32" s="115" t="e">
+        <f>VLOOKUP(A32,EMF_MASTER_FILE!A:F,6)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D32" s="117"/>
+      <c r="E32" s="118"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:3" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" s="119">
+        <f>VLOOKUP(A36,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="119">
+        <f>VLOOKUP(A36,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="B37" s="119">
+        <f>VLOOKUP(A37,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="119">
+        <f>VLOOKUP(A37,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="77" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="119" t="str">
+        <f>VLOOKUP(A38,EMF_MASTER_FILE!A:B,2)</f>
+        <v>EMP_Sts</v>
+      </c>
+      <c r="C38" s="119" t="str">
+        <f>VLOOKUP(A38,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Employee Status</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="B39" s="119" t="str">
+        <f>VLOOKUP(A39,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Emp_ID</v>
+      </c>
+      <c r="C39" s="119" t="str">
+        <f>VLOOKUP(A39,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Employee Code</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" s="119" t="str">
+        <f>VLOOKUP(A40,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Tax_Fle_Num</v>
+      </c>
+      <c r="C40" s="119" t="str">
+        <f>VLOOKUP(A40,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Tax File Number</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" s="119" t="str">
+        <f>VLOOKUP(A41,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Title</v>
+      </c>
+      <c r="C41" s="119" t="str">
+        <f>VLOOKUP(A41,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Position</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="B42" s="119" t="str">
+        <f>VLOOKUP(A42,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Frst_Nme</v>
+      </c>
+      <c r="C42" s="119" t="str">
+        <f>VLOOKUP(A42,EMF_MASTER_FILE!A:F,6)</f>
+        <v>First Name / Given Name</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="77" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" s="119" t="str">
+        <f>VLOOKUP(A43,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Second_Given_Name</v>
+      </c>
+      <c r="C43" s="119" t="str">
+        <f>VLOOKUP(A43,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Second Given Name</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="B44" s="119" t="str">
+        <f>VLOOKUP(A44,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Sur_Nme</v>
+      </c>
+      <c r="C44" s="119" t="str">
+        <f>VLOOKUP(A44,EMF_MASTER_FILE!A:F,6)</f>
+        <v>SurName / Family Name</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="B45" s="119" t="str">
+        <f>VLOOKUP(A45,EMF_MASTER_FILE!A:B,2)</f>
+        <v>ADD1</v>
+      </c>
+      <c r="C45" s="119" t="str">
+        <f>VLOOKUP(A45,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Address 1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="B46" s="119" t="str">
+        <f>VLOOKUP(A46,EMF_MASTER_FILE!A:B,2)</f>
+        <v>ADD2</v>
+      </c>
+      <c r="C46" s="119" t="str">
+        <f>VLOOKUP(A46,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Address 2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="B47" s="119" t="str">
+        <f>VLOOKUP(A47,EMF_MASTER_FILE!A:B,2)</f>
+        <v>ADD3</v>
+      </c>
+      <c r="C47" s="119" t="str">
+        <f>VLOOKUP(A47,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Address 3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" s="119" t="str">
+        <f>VLOOKUP(A48,EMF_MASTER_FILE!A:B,2)</f>
+        <v>City</v>
+      </c>
+      <c r="C48" s="119" t="str">
+        <f>VLOOKUP(A48,EMF_MASTER_FILE!A:F,6)</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="B49" s="119" t="str">
+        <f>VLOOKUP(A49,EMF_MASTER_FILE!A:B,2)</f>
+        <v>State</v>
+      </c>
+      <c r="C49" s="119" t="str">
+        <f>VLOOKUP(A49,EMF_MASTER_FILE!A:F,6)</f>
+        <v>State</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="B50" s="119" t="str">
+        <f>VLOOKUP(A50,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Pcode</v>
+      </c>
+      <c r="C50" s="119" t="str">
+        <f>VLOOKUP(A50,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Post Code</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="B51" s="119" t="str">
+        <f>VLOOKUP(A51,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Cntry</v>
+      </c>
+      <c r="C51" s="119" t="str">
+        <f>VLOOKUP(A51,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Country</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="B52" s="119" t="str">
+        <f>VLOOKUP(A52,EMF_MASTER_FILE!A:B,2)</f>
+        <v>TEL1</v>
+      </c>
+      <c r="C52" s="119" t="str">
+        <f>VLOOKUP(A52,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Telephone 1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="B53" s="119" t="str">
+        <f>VLOOKUP(A53,EMF_MASTER_FILE!A:B,2)</f>
+        <v>TEL2</v>
+      </c>
+      <c r="C53" s="119" t="str">
+        <f>VLOOKUP(A53,EMF_MASTER_FILE!A:F,6)</f>
+        <v xml:space="preserve">Teltphone 2 </v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="B54" s="119" t="str">
+        <f>VLOOKUP(A54,EMF_MASTER_FILE!A:B,2)</f>
+        <v>TEL3</v>
+      </c>
+      <c r="C54" s="119" t="str">
+        <f>VLOOKUP(A54,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Telephone 3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="B55" s="119" t="str">
+        <f>VLOOKUP(A55,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Fax</v>
+      </c>
+      <c r="C55" s="119" t="str">
+        <f>VLOOKUP(A55,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Fax</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="B56" s="119" t="str">
+        <f>VLOOKUP(A56,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Email_Bus</v>
+      </c>
+      <c r="C56" s="119" t="str">
+        <f>VLOOKUP(A56,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Email (Business)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="B57" s="119" t="str">
+        <f>VLOOKUP(A57,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Email_Privt</v>
+      </c>
+      <c r="C57" s="119" t="str">
+        <f>VLOOKUP(A57,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Email (Private)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="B58" s="119" t="str">
+        <f>VLOOKUP(A58,EMF_MASTER_FILE!A:B,2)</f>
+        <v>DOB</v>
+      </c>
+      <c r="C58" s="119" t="str">
+        <f>VLOOKUP(A58,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Date of Birth</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" s="119" t="str">
+        <f>VLOOKUP(A59,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Sex</v>
+      </c>
+      <c r="C59" s="119" t="str">
+        <f>VLOOKUP(A59,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Sex/Gender</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B60" s="119" t="str">
+        <f>VLOOKUP(A60,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Hire_Dt</v>
+      </c>
+      <c r="C60" s="119" t="str">
+        <f>VLOOKUP(A60,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Commence / Start / Hired Date</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="77" t="s">
+        <v>344</v>
+      </c>
+      <c r="B61" s="119" t="str">
+        <f>VLOOKUP(A61,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Trm_Dt</v>
+      </c>
+      <c r="C61" s="119" t="str">
+        <f>VLOOKUP(A61,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Termination Date</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="77" t="s">
+        <v>345</v>
+      </c>
+      <c r="B62" s="119" t="str">
+        <f>VLOOKUP(A62,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Term_Reason_Desc</v>
+      </c>
+      <c r="C62" s="119" t="str">
+        <f>VLOOKUP(A62,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Termination Reason Description</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="B63" s="119" t="str">
+        <f>VLOOKUP(A63,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Mrtl_Sts</v>
+      </c>
+      <c r="C63" s="119" t="str">
+        <f>VLOOKUP(A63,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Marital Status</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="77" t="s">
+        <v>347</v>
+      </c>
+      <c r="B64" s="119" t="str">
+        <f>VLOOKUP(A64,EMF_MASTER_FILE!A:B,2)</f>
+        <v>AUTOPAY_HOURS_DAYS</v>
+      </c>
+      <c r="C64" s="119" t="str">
+        <f>VLOOKUP(A64,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Auto Pay Hours / Days</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="77" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" s="119" t="str">
+        <f>VLOOKUP(A65,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Emp_Catg</v>
+      </c>
+      <c r="C65" s="119" t="str">
+        <f>VLOOKUP(A65,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Employee Type Description</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="B66" s="119" t="str">
+        <f>VLOOKUP(A66,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Created_Dt</v>
+      </c>
+      <c r="C66" s="119" t="str">
+        <f>VLOOKUP(A66,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Created Date</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="77" t="s">
+        <v>350</v>
+      </c>
+      <c r="B67" s="119" t="str">
+        <f>VLOOKUP(A67,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Modf_Dt</v>
+      </c>
+      <c r="C67" s="119" t="str">
+        <f>VLOOKUP(A67,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Modified Date</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="77" t="s">
+        <v>351</v>
+      </c>
+      <c r="B68" s="119" t="str">
+        <f>VLOOKUP(A68,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Commencement_Dt</v>
+      </c>
+      <c r="C68" s="119" t="str">
+        <f>VLOOKUP(A68,EMF_MASTER_FILE!A:F,6)</f>
+        <v>CommencementDate</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="77" t="s">
+        <v>352</v>
+      </c>
+      <c r="B69" s="119" t="str">
+        <f>VLOOKUP(A69,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Anniversary_Dt</v>
+      </c>
+      <c r="C69" s="119" t="str">
+        <f>VLOOKUP(A69,EMF_MASTER_FILE!A:F,6)</f>
+        <v>AnniversaryDate</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="B70" s="119" t="str">
+        <f>VLOOKUP(A70,EMF_MASTER_FILE!A:B,2)</f>
+        <v>SLTotalUnits</v>
+      </c>
+      <c r="C70" s="119" t="str">
+        <f>VLOOKUP(A70,EMF_MASTER_FILE!A:F,6)</f>
+        <v>SLTotalUnits</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="77" t="s">
+        <v>354</v>
+      </c>
+      <c r="B71" s="119" t="str">
+        <f>VLOOKUP(A71,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Total_PayAmt</v>
+      </c>
+      <c r="C71" s="119" t="str">
+        <f>VLOOKUP(A71,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Total_PayAmt</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="77" t="s">
+        <v>355</v>
+      </c>
+      <c r="B72" s="119" t="str">
+        <f>VLOOKUP(A72,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Total_Pay_Num</v>
+      </c>
+      <c r="C72" s="119" t="str">
+        <f>VLOOKUP(A72,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Total_Pay_Num</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="77" t="s">
+        <v>356</v>
+      </c>
+      <c r="B73" s="119" t="str">
+        <f>VLOOKUP(A73,EMF_MASTER_FILE!A:B,2)</f>
+        <v>COST_CENTRE</v>
+      </c>
+      <c r="C73" s="119" t="str">
+        <f>VLOOKUP(A73,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Cost Centre/Department</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="77" t="s">
+        <v>357</v>
+      </c>
+      <c r="B74" s="119" t="str">
+        <f>VLOOKUP(A74,EMF_MASTER_FILE!A:B,2)</f>
+        <v>COST_CENTRE_DESC</v>
+      </c>
+      <c r="C74" s="119" t="str">
+        <f>VLOOKUP(A74,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Cost Centre/Department Description</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="77" t="s">
+        <v>358</v>
+      </c>
+      <c r="B75" s="119" t="str">
+        <f>VLOOKUP(A75,EMF_MASTER_FILE!A:B,2)</f>
+        <v>BSB</v>
+      </c>
+      <c r="C75" s="119" t="str">
+        <f>VLOOKUP(A75,EMF_MASTER_FILE!A:F,6)</f>
+        <v>BSB</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="B76" s="119" t="str">
+        <f>VLOOKUP(A76,EMF_MASTER_FILE!A:B,2)</f>
+        <v>Bank_account_number</v>
+      </c>
+      <c r="C76" s="119" t="str">
+        <f>VLOOKUP(A76,EMF_MASTER_FILE!A:F,6)</f>
+        <v>Bank Account Number</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="B77" s="119">
+        <f>VLOOKUP(A77,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C77" s="119">
+        <f>VLOOKUP(A77,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="B78" s="119">
+        <f>VLOOKUP(A78,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C78" s="119">
+        <f>VLOOKUP(A78,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="77" t="s">
+        <v>362</v>
+      </c>
+      <c r="B79" s="119">
+        <f>VLOOKUP(A79,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="119">
+        <f>VLOOKUP(A79,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="77" t="s">
+        <v>363</v>
+      </c>
+      <c r="B80" s="119">
+        <f>VLOOKUP(A80,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C80" s="119">
+        <f>VLOOKUP(A80,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="B81" s="119">
+        <f>VLOOKUP(A81,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="119">
+        <f>VLOOKUP(A81,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="77" t="s">
+        <v>365</v>
+      </c>
+      <c r="B82" s="119">
+        <f>VLOOKUP(A82,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="119">
+        <f>VLOOKUP(A82,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="77" t="s">
+        <v>366</v>
+      </c>
+      <c r="B83" s="119">
+        <f>VLOOKUP(A83,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="119">
+        <f>VLOOKUP(A83,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="B84" s="119">
+        <f>VLOOKUP(A84,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="119">
+        <f>VLOOKUP(A84,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="77" t="s">
+        <v>368</v>
+      </c>
+      <c r="B85" s="119">
+        <f>VLOOKUP(A85,EMF_MASTER_FILE!A:B,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="119">
+        <f>VLOOKUP(A85,EMF_MASTER_FILE!A:F,6)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5168,7 +5125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
@@ -5274,7 +5231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5523,7 +5480,7 @@
       <pane xSplit="3" ySplit="12" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5550,29 +5507,29 @@
       <c r="A1" s="71" t="s">
         <v>393</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="95" t="s">
         <v>440</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="93" t="s">
         <v>437</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="78" t="s">
+      <c r="G3" s="94"/>
+      <c r="H3" s="93" t="s">
         <v>439</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="78" t="s">
+      <c r="I3" s="94"/>
+      <c r="J3" s="93" t="s">
         <v>436</v>
       </c>
-      <c r="K3" s="79"/>
+      <c r="K3" s="94"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
@@ -6333,7 +6290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6360,30 +6317,30 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="86" t="s">
+      <c r="H4" s="100"/>
+      <c r="I4" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="102"/>
       <c r="L4" s="42" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="52" t="s">
         <v>6</v>
       </c>
@@ -7774,31 +7731,31 @@
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86" t="s">
+      <c r="H1" s="100"/>
+      <c r="I1" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="J1" s="87"/>
+      <c r="J1" s="102"/>
       <c r="L1" s="42" t="s">
         <v>315</v>
       </c>
       <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:13" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
+      <c r="A2" s="104"/>
       <c r="B2" s="52" t="s">
         <v>6</v>
       </c>
@@ -8222,31 +8179,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="41" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86" t="s">
+      <c r="H1" s="100"/>
+      <c r="I1" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="J1" s="87"/>
+      <c r="J1" s="102"/>
       <c r="L1" s="42" t="s">
         <v>315</v>
       </c>
       <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:13" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89"/>
+      <c r="A2" s="104"/>
       <c r="B2" s="52" t="s">
         <v>6</v>
       </c>
